--- a/biology/Histoire de la zoologie et de la botanique/Wilhelm_Friedrich_Philipp_Pfeffer/Wilhelm_Friedrich_Philipp_Pfeffer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilhelm_Friedrich_Philipp_Pfeffer/Wilhelm_Friedrich_Philipp_Pfeffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Friedrich Philipp Pfeffer est un botaniste prussien, né le 9 mars 1845 à Grebenstein et mort le 31 janvier 1920 à Cassel.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son doctorat à l’université de Göttingen. Élève de Nathanael Pringsheim (1823-1894), il étudie et fait des recherches à Marbourg, Wurtzbourg et Bonn. Rudolf Eucken est membre de la Fraternité noire (de) et plus tard du Corps Frisia Göttingen (de). Il devient professeur de botanique à Tübingen et à Bâle avant de venir enseigner en 1887 à Leipzig où il dirige également le jardin botanique.
 Pfeffer devient membre de la Royal Society en 1897 et est membre correspondant de l’Académie des sciences de Paris. Il est notamment l’auteur de Handbuch der Pflanzenphysiologie (deux volumes, 1881) et de Studien zür Energetik der Pflanze (1892).
@@ -544,7 +558,9 @@
           <t>Élèves illustres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De nombreux élèves de Wilhelm Pfeffer sont devenus par la suite des botanistes réputés. Parmi eux, il y a :
 Jørgen Brunchorst (1862–1917)
